--- a/wasym/expdata/1000.xlsx
+++ b/wasym/expdata/1000.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\wasym\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="16">
   <si>
     <t>cms</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>eta_max</t>
-  </si>
-  <si>
-    <t>pt_min</t>
   </si>
   <si>
     <t>syst_u</t>
@@ -398,7 +395,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -424,7 +421,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -433,10 +430,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -462,7 +459,7 @@
         <v>0.2</v>
       </c>
       <c r="F2" s="1">
-        <v>25</v>
+        <v>0.1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -500,7 +497,7 @@
         <v>0.4</v>
       </c>
       <c r="F3" s="1">
-        <v>25</v>
+        <v>0.3</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>6</v>
@@ -538,7 +535,7 @@
         <v>0.6</v>
       </c>
       <c r="F4" s="1">
-        <v>25</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>6</v>
@@ -576,7 +573,7 @@
         <v>0.8</v>
       </c>
       <c r="F5" s="1">
-        <v>25</v>
+        <v>0.7</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>6</v>
@@ -614,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>25</v>
+        <v>0.89</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>6</v>
@@ -652,7 +649,7 @@
         <v>1.2</v>
       </c>
       <c r="F7" s="1">
-        <v>25</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>6</v>
@@ -690,7 +687,7 @@
         <v>1.4</v>
       </c>
       <c r="F8" s="1">
-        <v>25</v>
+        <v>1.29</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>6</v>
@@ -728,7 +725,7 @@
         <v>1.6</v>
       </c>
       <c r="F9" s="1">
-        <v>25</v>
+        <v>1.49</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>6</v>
@@ -766,7 +763,7 @@
         <v>1.8</v>
       </c>
       <c r="F10" s="1">
-        <v>25</v>
+        <v>1.69</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>6</v>
@@ -804,7 +801,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="F11" s="1">
-        <v>25</v>
+        <v>1.91</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>6</v>
@@ -842,7 +839,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F12" s="1">
-        <v>25</v>
+        <v>2.15</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>6</v>
@@ -880,7 +877,7 @@
         <v>2.6</v>
       </c>
       <c r="F13" s="1">
-        <v>25</v>
+        <v>2.4</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>6</v>
@@ -918,7 +915,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="1">
-        <v>25</v>
+        <v>2.63</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>6</v>

--- a/wasym/expdata/1000.xlsx
+++ b/wasym/expdata/1000.xlsx
@@ -59,9 +59,6 @@
     <t>A_eta_W</t>
   </si>
   <si>
-    <t xml:space="preserve">CDF(W) </t>
-  </si>
-  <si>
     <t>eta_min</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>stat_u</t>
+  </si>
+  <si>
+    <t>CDF(W)</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -415,10 +415,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -430,10 +430,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>8</v>

--- a/wasym/expdata/1000.xlsx
+++ b/wasym/expdata/1000.xlsx
@@ -29,9 +29,6 @@
     <t>cms</t>
   </si>
   <si>
-    <t>eta</t>
-  </si>
-  <si>
     <t>boson</t>
   </si>
   <si>
@@ -56,15 +53,6 @@
     <t>target</t>
   </si>
   <si>
-    <t>A_eta_W</t>
-  </si>
-  <si>
-    <t>eta_min</t>
-  </si>
-  <si>
-    <t>eta_max</t>
-  </si>
-  <si>
     <t>syst_u</t>
   </si>
   <si>
@@ -72,6 +60,18 @@
   </si>
   <si>
     <t>CDF(W)</t>
+  </si>
+  <si>
+    <t>Y_min</t>
+  </si>
+  <si>
+    <t>Y_max</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>W_aysm</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -406,48 +406,48 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>1960</v>
@@ -462,7 +462,7 @@
         <v>0.1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1">
         <v>0.02</v>
@@ -474,18 +474,18 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>1960</v>
@@ -500,7 +500,7 @@
         <v>0.3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1">
         <v>5.7000000000000002E-2</v>
@@ -512,18 +512,18 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>1960</v>
@@ -538,7 +538,7 @@
         <v>0.5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="1">
         <v>8.1000000000000003E-2</v>
@@ -550,18 +550,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>1960</v>
@@ -576,7 +576,7 @@
         <v>0.7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1">
         <v>0.11700000000000001</v>
@@ -588,18 +588,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>1960</v>
@@ -614,7 +614,7 @@
         <v>0.89</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1">
         <v>0.14599999999999999</v>
@@ -626,18 +626,18 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>1960</v>
@@ -652,7 +652,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1">
         <v>0.20399999999999999</v>
@@ -664,18 +664,18 @@
         <v>0.01</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>1960</v>
@@ -690,7 +690,7 @@
         <v>1.29</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" s="1">
         <v>0.23499999999999999</v>
@@ -702,18 +702,18 @@
         <v>1.2E-2</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>1960</v>
@@ -728,7 +728,7 @@
         <v>1.49</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1">
         <v>0.26100000000000001</v>
@@ -740,18 +740,18 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>1960</v>
@@ -766,7 +766,7 @@
         <v>1.69</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10" s="1">
         <v>0.30299999999999999</v>
@@ -778,18 +778,18 @@
         <v>1.4E-2</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <v>1960</v>
@@ -804,7 +804,7 @@
         <v>1.91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" s="1">
         <v>0.35499999999999998</v>
@@ -816,18 +816,18 @@
         <v>1.4E-2</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1">
         <v>1960</v>
@@ -842,7 +842,7 @@
         <v>2.15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1">
         <v>0.436</v>
@@ -854,18 +854,18 @@
         <v>1.6E-2</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
         <v>1960</v>
@@ -880,7 +880,7 @@
         <v>2.4</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" s="1">
         <v>0.53700000000000003</v>
@@ -892,18 +892,18 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1">
         <v>1960</v>
@@ -918,7 +918,7 @@
         <v>2.63</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1">
         <v>0.64200000000000002</v>
@@ -930,10 +930,10 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/wasym/expdata/1000.xlsx
+++ b/wasym/expdata/1000.xlsx
@@ -71,7 +71,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>W_aysm</t>
+    <t>W_asym</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/wasym/expdata/1000.xlsx
+++ b/wasym/expdata/1000.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\wasym\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80976D7E-24E9-6B48-A553-C26D4ECCAB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView xWindow="33880" yWindow="5120" windowWidth="28800" windowHeight="12300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -24,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
   <si>
     <t>cms</t>
   </si>
@@ -53,9 +63,6 @@
     <t>target</t>
   </si>
   <si>
-    <t>syst_u</t>
-  </si>
-  <si>
     <t>stat_u</t>
   </si>
   <si>
@@ -72,12 +79,36 @@
   </si>
   <si>
     <t>W_asym</t>
+  </si>
+  <si>
+    <t>syst_tot</t>
+  </si>
+  <si>
+    <t>syst1_c</t>
+  </si>
+  <si>
+    <t>syst2_c</t>
+  </si>
+  <si>
+    <t>syst3_c</t>
+  </si>
+  <si>
+    <t>syst4_c</t>
+  </si>
+  <si>
+    <t>syst5_c</t>
+  </si>
+  <si>
+    <t>syst6_c</t>
+  </si>
+  <si>
+    <t>syst7_c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -391,20 +422,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="12" width="10.875" style="1" customWidth="1"/>
-    <col min="1024" max="1026" width="10.5" customWidth="1"/>
+    <col min="3" max="19" width="10.83203125" style="1" customWidth="1"/>
+    <col min="1031" max="1033" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -415,13 +446,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -433,18 +464,39 @@
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -468,21 +520,42 @@
         <v>0.02</v>
       </c>
       <c r="I2" s="1">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="J2" s="1">
         <v>1E-3</v>
       </c>
-      <c r="J2" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="S2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -506,21 +579,42 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="I3" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="J3" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J3" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="K3" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="L3" s="1">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="O3" s="1">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="P3" s="1">
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="S3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -544,21 +638,42 @@
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="I4" s="1">
+        <v>3.3E-3</v>
+      </c>
+      <c r="J4" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J4" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="S4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -582,21 +697,42 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="J5" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="K5" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3.4000000000000002E-3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="S5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -620,21 +756,42 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="I6" s="1">
+        <v>3.4000000000000002E-3</v>
+      </c>
+      <c r="J6" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J6" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="K6" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4.6999999999999993E-3</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="S6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -658,21 +815,42 @@
         <v>0.20399999999999999</v>
       </c>
       <c r="I7" s="1">
+        <v>3.8E-3</v>
+      </c>
+      <c r="J7" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J7" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="K7" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3.3E-3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="P7" s="1">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="S7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -696,21 +874,42 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="I8" s="1">
+        <v>4.3E-3</v>
+      </c>
+      <c r="J8" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="J8" s="1">
-        <v>1.2E-2</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="K8" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="N8" s="1">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="O8" s="1">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="P8" s="1">
+        <v>7.8000000000000005E-3</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="S8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -734,21 +933,42 @@
         <v>0.26100000000000001</v>
       </c>
       <c r="I9" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J9" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="J9" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="K9" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="P9" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="S9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -772,21 +992,42 @@
         <v>0.30299999999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>1.4E-2</v>
+        <v>5.5000000000000005E-3</v>
       </c>
       <c r="J10" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="K10" s="1">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="N10" s="1">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="P10" s="1">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="S10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -810,21 +1051,42 @@
         <v>0.35499999999999998</v>
       </c>
       <c r="I11" s="1">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="J11" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="J11" s="1">
-        <v>1.4E-2</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="K11" s="1">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="N11" s="1">
+        <v>8.199999999999999E-3</v>
+      </c>
+      <c r="O11" s="1">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="P11" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>3.4000000000000002E-3</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="S11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -848,21 +1110,42 @@
         <v>0.436</v>
       </c>
       <c r="I12" s="1">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="J12" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="J12" s="1">
-        <v>1.6E-2</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="1" t="s">
+      <c r="K12" s="1">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="M12" s="1">
+        <v>5.3E-3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="P12" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="S12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -886,21 +1169,42 @@
         <v>0.53700000000000003</v>
       </c>
       <c r="I13" s="1">
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="J13" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="J13" s="1">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="1" t="s">
+      <c r="K13" s="1">
+        <v>4.5000000000000005E-3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1.9E-3</v>
+      </c>
+      <c r="M13" s="1">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="N13" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="P13" s="1">
+        <v>8.6E-3</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="S13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
@@ -924,16 +1228,37 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="I14" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J14" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="J14" s="1">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="1" t="s">
+      <c r="K14" s="1">
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M14" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N14" s="1">
+        <v>4.3E-3</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="P14" s="1">
+        <v>6.5000000000000006E-3</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>5.3E-3</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/wasym/expdata/1000.xlsx
+++ b/wasym/expdata/1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80976D7E-24E9-6B48-A553-C26D4ECCAB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED3FC76-89FE-4949-AAD6-B7F161F6AB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33880" yWindow="5120" windowWidth="28800" windowHeight="12300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>syst_tot</t>
   </si>
   <si>
-    <t>syst1_c</t>
-  </si>
-  <si>
     <t>syst2_c</t>
   </si>
   <si>
@@ -99,10 +96,13 @@
     <t>syst5_c</t>
   </si>
   <si>
-    <t>syst6_c</t>
-  </si>
-  <si>
     <t>syst7_c</t>
+  </si>
+  <si>
+    <t>syst1_u</t>
+  </si>
+  <si>
+    <t>syst6_u</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,25 +467,25 @@
         <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>3</v>
